--- a/SceneServer/tools/Xlsx/kx_item_attr.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++\KxServer\x64\Debug\tools\Xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A895CD-51EF-4198-A40C-7490CB5BF714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="14235" xr2:uid="{1FC14999-40B6-404A-BBAC-D69775A48DEC}"/>
+    <workbookView windowHeight="16425"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -19,24 +13,35 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$97</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>属性名称</t>
+  </si>
+  <si>
+    <t>最小物理攻击力</t>
+  </si>
+  <si>
+    <t>最大物理攻击力</t>
   </si>
   <si>
     <t>最小魔法攻击力</t>
@@ -45,6 +50,51 @@
     <t>最大魔法攻击力</t>
   </si>
   <si>
+    <t>物理防御力</t>
+  </si>
+  <si>
+    <t>物理防御千分比</t>
+  </si>
+  <si>
+    <t>魔法防御力</t>
+  </si>
+  <si>
+    <t>魔法防御千分比</t>
+  </si>
+  <si>
+    <t>必杀成功率</t>
+  </si>
+  <si>
+    <t>魔法必杀成功率</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>格挡成功率</t>
+  </si>
+  <si>
+    <t>降低对方格挡成功率</t>
+  </si>
+  <si>
+    <t>攻击成功率</t>
+  </si>
+  <si>
+    <t>生命恢复力</t>
+  </si>
+  <si>
+    <t>魔法恢复力</t>
+  </si>
+  <si>
+    <t>全体物品获得率</t>
+  </si>
+  <si>
+    <t>魔法物品获得率</t>
+  </si>
+  <si>
     <t>力量</t>
   </si>
   <si>
@@ -66,272 +116,491 @@
     <t>黄魔法</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小物理攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大物理攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理防御千分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法防御千分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必杀成功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡成功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低对方格挡成功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击成功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命恢复力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>黑魔法</t>
+  </si>
+  <si>
+    <t>红魔法抵抗力</t>
+  </si>
+  <si>
+    <t>蓝魔法抵抗力</t>
+  </si>
+  <si>
+    <t>黄魔法抵抗力</t>
   </si>
   <si>
     <t>魔法抵抗力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>MaxMP</t>
+  </si>
+  <si>
+    <t>物理反弹</t>
+  </si>
+  <si>
+    <t>魔法反弹</t>
+  </si>
+  <si>
+    <t>集中力</t>
+  </si>
+  <si>
+    <t>分散力</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
   </si>
   <si>
     <t>亡灵系最小攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法恢复力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体物品获得率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法物品获得率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红魔法抵抗力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝魔法抵抗力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄魔法抵抗力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理反弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法反弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分散力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亡灵系最大攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亡灵系防御率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亡灵系防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生物系最小攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生物系最大攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生物系防御率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生物系防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>召唤系最小攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>召唤系最大攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>召唤系防御率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>召唤系防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>突击系最小攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>突击系最大攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>突击系防御率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>突击系防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人类系最小攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人类系最大攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人类系防御率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人类系防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精灵系最小攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精灵系最大攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精灵系防御率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精灵系防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法必杀成功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理致命伤害加成</t>
+  </si>
+  <si>
+    <t>魔法致命伤害加成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -339,9 +608,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -350,17 +861,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,7 +964,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -442,26 +997,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -494,23 +1032,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,53 +1173,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAEF232-3127-4514-B018-D0C3253D71D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="34.75" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="153.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="153.75" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="6.375" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="82.625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="39.5" customWidth="1"/>
+    <col min="17" max="17" width="21.25" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="19" max="22" width="255.625" customWidth="1"/>
+    <col min="23" max="23" width="51.375" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="27" max="27" width="9.375" customWidth="1"/>
+    <col min="28" max="28" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,556 +1222,576 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:2">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:2">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:2">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:2">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:2">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:2">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:2">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:2">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:2">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:2">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
       <c r="A62">
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:2">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:2">
       <c r="A64">
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:2">
       <c r="A65">
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:2">
       <c r="A66">
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:2">
       <c r="A67">
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:2">
       <c r="A68">
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" x14ac:dyDescent="0.2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:2">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:2">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:B97" xr:uid="{3E666C3A-E333-454B-91DA-003542BD7183}">
-    <sortState ref="A2:B97">
+  <autoFilter ref="A1:B97">
+    <sortState ref="A1:B97">
       <sortCondition ref="A1:A97"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3774C9-F5EF-45BF-9505-262EF4E09842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SceneServer/tools/Xlsx/kx_item_attr.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++\KxServer\x64\Build\SceneServer\tools\Xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136238A-47AB-4640-939E-32A056DFF674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$95</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>idx</t>
   </si>
@@ -234,19 +240,41 @@
   </si>
   <si>
     <t>魔法致命伤害加成</t>
+  </si>
+  <si>
+    <t>最终物理伤害千分比</t>
+  </si>
+  <si>
+    <t>最终魔法伤害千分比</t>
+  </si>
+  <si>
+    <t>无视物理防御千分比</t>
+  </si>
+  <si>
+    <t>无视魔法防御千分比</t>
+  </si>
+  <si>
+    <t>最终生命加成千分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终魔法加成千分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击千分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻击千分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,9 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -265,342 +293,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -608,314 +314,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1173,19 +596,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="34.75" customWidth="1"/>
@@ -1214,7 +637,7 @@
     <col min="28" max="28" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1246,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1254,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:2">
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1262,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:2">
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1270,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:2">
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1278,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:2">
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1286,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:2">
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1294,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:2">
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1302,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:2">
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1310,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:2">
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1318,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:2">
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1326,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:2">
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1334,7 +757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:2">
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1342,7 +765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:2">
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1350,7 +773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:2">
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1358,7 +781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:2">
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1366,7 +789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:2">
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1374,7 +797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:2">
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1382,7 +805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:2">
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1390,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1398,7 +821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:2">
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1406,7 +829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:2">
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1414,7 +837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:2">
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1422,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:2">
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1430,7 +853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:2">
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1438,7 +861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:2">
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1446,7 +869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:2">
+    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1454,7 +877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:2">
+    <row r="32" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1462,7 +885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:2">
+    <row r="33" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1470,7 +893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:2">
+    <row r="34" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1478,7 +901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:2">
+    <row r="35" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1486,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:2">
+    <row r="36" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1494,7 +917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:2">
+    <row r="37" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1502,7 +925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:2">
+    <row r="38" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1510,7 +933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:2">
+    <row r="39" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1518,7 +941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:2">
+    <row r="40" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1526,7 +949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:2">
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1534,7 +957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:2">
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1542,7 +965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:2">
+    <row r="43" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
@@ -1550,7 +973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:2">
+    <row r="44" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1558,7 +981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:2">
+    <row r="45" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
@@ -1566,7 +989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:2">
+    <row r="46" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
@@ -1574,7 +997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:2">
+    <row r="47" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
@@ -1582,7 +1005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:2">
+    <row r="48" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
@@ -1590,7 +1013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:2">
+    <row r="49" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
@@ -1598,7 +1021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:2">
+    <row r="50" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
@@ -1606,7 +1029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:2">
+    <row r="51" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>47</v>
       </c>
@@ -1614,7 +1037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:2">
+    <row r="52" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>48</v>
       </c>
@@ -1622,7 +1045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:2">
+    <row r="53" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>49</v>
       </c>
@@ -1630,7 +1053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:2">
+    <row r="54" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
@@ -1638,7 +1061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:2">
+    <row r="55" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>51</v>
       </c>
@@ -1646,7 +1069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:2">
+    <row r="56" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>52</v>
       </c>
@@ -1654,7 +1077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:2">
+    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>53</v>
       </c>
@@ -1662,7 +1085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:2">
+    <row r="58" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>54</v>
       </c>
@@ -1670,7 +1093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:2">
+    <row r="59" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>55</v>
       </c>
@@ -1678,7 +1101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:2">
+    <row r="60" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>56</v>
       </c>
@@ -1686,7 +1109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:2">
+    <row r="61" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>57</v>
       </c>
@@ -1694,7 +1117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:2">
+    <row r="62" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>58</v>
       </c>
@@ -1702,7 +1125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:2">
+    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>59</v>
       </c>
@@ -1710,7 +1133,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:2">
+    <row r="64" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>60</v>
       </c>
@@ -1718,7 +1141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:2">
+    <row r="65" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>61</v>
       </c>
@@ -1726,7 +1149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:2">
+    <row r="66" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>62</v>
       </c>
@@ -1734,7 +1157,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:2">
+    <row r="67" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>63</v>
       </c>
@@ -1742,7 +1165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:2">
+    <row r="68" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>64</v>
       </c>
@@ -1750,7 +1173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:2">
+    <row r="69" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>65</v>
       </c>
@@ -1758,7 +1181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:2">
+    <row r="70" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>66</v>
       </c>
@@ -1766,32 +1189,88 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" ht="14.25"/>
+    <row r="71" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:B97">
-    <sortState ref="A1:B97">
-      <sortCondition ref="A1:A97"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:B95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/SceneServer/tools/Xlsx/kx_item_attr.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++\KxServer\x64\Build\SceneServer\tools\Xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136238A-47AB-4640-939E-32A056DFF674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$94</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>idx</t>
   </si>
@@ -255,26 +249,55 @@
   </si>
   <si>
     <t>最终生命加成千分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最终魔法加成千分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理攻击千分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法攻击千分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击值(面板)加成千分比</t>
+  </si>
+  <si>
+    <t>魔法攻击值(面板)加成千分比</t>
+  </si>
+  <si>
+    <t>物理攻击值(面板)减少千分比</t>
+  </si>
+  <si>
+    <t>魔法攻击值(面板)减少千分比</t>
+  </si>
+  <si>
+    <t>魔法消耗减免千分比</t>
+  </si>
+  <si>
+    <t>物理防御值(面板)减少千分比</t>
+  </si>
+  <si>
+    <t>魔法防御值(面板)减少千分比</t>
+  </si>
+  <si>
+    <t>最终物理防御值(面板)加成千分比</t>
+  </si>
+  <si>
+    <t>最终魔法防御值(面板)加成千分比</t>
+  </si>
+  <si>
+    <t>最终物理伤害减免千分比</t>
+  </si>
+  <si>
+    <t>最终魔法伤害减免千分比</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,30 +306,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -314,9 +652,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -324,21 +904,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -596,19 +1220,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="34.75" customWidth="1"/>
@@ -637,7 +1261,7 @@
     <col min="28" max="28" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -653,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -661,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -669,7 +1293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -677,7 +1301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" spans="1:2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -685,7 +1309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -693,7 +1317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="1:2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -701,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -709,7 +1333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -717,7 +1341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customHeight="1" spans="1:2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -725,7 +1349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="1:2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -733,7 +1357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="1:2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -741,7 +1365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="1:2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -749,7 +1373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="1:2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -757,7 +1381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -765,7 +1389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" customHeight="1" spans="1:2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -773,7 +1397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -781,7 +1405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" customHeight="1" spans="1:2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -789,7 +1413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -797,7 +1421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customHeight="1" spans="1:2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -805,7 +1429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customHeight="1" spans="1:2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -813,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customHeight="1" spans="1:2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -821,7 +1445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customHeight="1" spans="1:2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -829,7 +1453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customHeight="1" spans="1:2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -837,7 +1461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customHeight="1" spans="1:2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -845,7 +1469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" customHeight="1" spans="1:2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -853,7 +1477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" customHeight="1" spans="1:2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -861,7 +1485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" customHeight="1" spans="1:2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -869,7 +1493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" customHeight="1" spans="1:2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -877,7 +1501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" customHeight="1" spans="1:2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -885,7 +1509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" customHeight="1" spans="1:2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -893,7 +1517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" customHeight="1" spans="1:2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -901,7 +1525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" customHeight="1" spans="1:2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -909,7 +1533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" customHeight="1" spans="1:2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -917,7 +1541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" customHeight="1" spans="1:2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -925,7 +1549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" customHeight="1" spans="1:2">
       <c r="A38">
         <v>34</v>
       </c>
@@ -933,7 +1557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" customHeight="1" spans="1:2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -941,7 +1565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" customHeight="1" spans="1:2">
       <c r="A40">
         <v>36</v>
       </c>
@@ -949,7 +1573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" customHeight="1" spans="1:2">
       <c r="A41">
         <v>37</v>
       </c>
@@ -957,7 +1581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" customHeight="1" spans="1:2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -965,7 +1589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" customHeight="1" spans="1:2">
       <c r="A43">
         <v>39</v>
       </c>
@@ -973,7 +1597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" customHeight="1" spans="1:2">
       <c r="A44">
         <v>40</v>
       </c>
@@ -981,7 +1605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" customHeight="1" spans="1:2">
       <c r="A45">
         <v>41</v>
       </c>
@@ -989,7 +1613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" customHeight="1" spans="1:2">
       <c r="A46">
         <v>42</v>
       </c>
@@ -997,7 +1621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" customHeight="1" spans="1:2">
       <c r="A47">
         <v>43</v>
       </c>
@@ -1005,7 +1629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" customHeight="1" spans="1:2">
       <c r="A48">
         <v>44</v>
       </c>
@@ -1013,7 +1637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" customHeight="1" spans="1:2">
       <c r="A49">
         <v>45</v>
       </c>
@@ -1021,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" customHeight="1" spans="1:2">
       <c r="A50">
         <v>46</v>
       </c>
@@ -1029,7 +1653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" customHeight="1" spans="1:2">
       <c r="A51">
         <v>47</v>
       </c>
@@ -1037,7 +1661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" customHeight="1" spans="1:2">
       <c r="A52">
         <v>48</v>
       </c>
@@ -1045,7 +1669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" customHeight="1" spans="1:2">
       <c r="A53">
         <v>49</v>
       </c>
@@ -1053,7 +1677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" customHeight="1" spans="1:2">
       <c r="A54">
         <v>50</v>
       </c>
@@ -1061,7 +1685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" customHeight="1" spans="1:2">
       <c r="A55">
         <v>51</v>
       </c>
@@ -1069,7 +1693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" customHeight="1" spans="1:2">
       <c r="A56">
         <v>52</v>
       </c>
@@ -1077,7 +1701,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" customHeight="1" spans="1:2">
       <c r="A57">
         <v>53</v>
       </c>
@@ -1085,7 +1709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" customHeight="1" spans="1:2">
       <c r="A58">
         <v>54</v>
       </c>
@@ -1093,7 +1717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" customHeight="1" spans="1:2">
       <c r="A59">
         <v>55</v>
       </c>
@@ -1101,7 +1725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" customHeight="1" spans="1:2">
       <c r="A60">
         <v>56</v>
       </c>
@@ -1109,7 +1733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" customHeight="1" spans="1:2">
       <c r="A61">
         <v>57</v>
       </c>
@@ -1117,7 +1741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" customHeight="1" spans="1:2">
       <c r="A62">
         <v>58</v>
       </c>
@@ -1125,7 +1749,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" customHeight="1" spans="1:2">
       <c r="A63">
         <v>59</v>
       </c>
@@ -1133,7 +1757,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" customHeight="1" spans="1:2">
       <c r="A64">
         <v>60</v>
       </c>
@@ -1141,7 +1765,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" customHeight="1" spans="1:2">
       <c r="A65">
         <v>61</v>
       </c>
@@ -1149,7 +1773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" customHeight="1" spans="1:2">
       <c r="A66">
         <v>62</v>
       </c>
@@ -1157,7 +1781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" customHeight="1" spans="1:2">
       <c r="A67">
         <v>63</v>
       </c>
@@ -1165,7 +1789,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" customHeight="1" spans="1:2">
       <c r="A68">
         <v>64</v>
       </c>
@@ -1173,7 +1797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" customHeight="1" spans="1:2">
       <c r="A69">
         <v>65</v>
       </c>
@@ -1181,7 +1805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" customHeight="1" spans="1:2">
       <c r="A70">
         <v>66</v>
       </c>
@@ -1189,7 +1813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" customHeight="1" spans="1:2">
       <c r="A71">
         <v>67</v>
       </c>
@@ -1197,7 +1821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" customHeight="1" spans="1:2">
       <c r="A72">
         <v>68</v>
       </c>
@@ -1205,7 +1829,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" customHeight="1" spans="1:2">
       <c r="A73">
         <v>69</v>
       </c>
@@ -1213,7 +1837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" customHeight="1" spans="1:2">
       <c r="A74">
         <v>70</v>
       </c>
@@ -1221,7 +1845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" customHeight="1" spans="1:2">
       <c r="A75">
         <v>71</v>
       </c>
@@ -1229,7 +1853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" customHeight="1" spans="1:2">
       <c r="A76">
         <v>72</v>
       </c>
@@ -1237,7 +1861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" customHeight="1" spans="1:2">
       <c r="A77">
         <v>73</v>
       </c>
@@ -1245,7 +1869,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" customHeight="1" spans="1:2">
       <c r="A78">
         <v>74</v>
       </c>
@@ -1253,24 +1877,101 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="79" customHeight="1" spans="1:2">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:2">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:2">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:2">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:2">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:2">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:2">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:2">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:2">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:B95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:B94">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>